--- a/Feature-Analysis/Resize Feature/s_19_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_19_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.61171296297</v>
+        <v>738157.61171296297</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.61209490744</v>
+        <v>738157.61209490744</v>
       </c>
       <c r="C3" s="0">
         <v>33.000002056360245</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.61275462958</v>
+        <v>738157.61275462958</v>
       </c>
       <c r="C4" s="0">
         <v>89.99999463558197</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.61310185189</v>
+        <v>738157.61310185189</v>
       </c>
       <c r="C5" s="0">
         <v>120.00000290572643</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.61348379625</v>
+        <v>738157.61348379625</v>
       </c>
       <c r="C6" s="0">
         <v>152.99999490380287</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.61383101856</v>
+        <v>738157.61383101856</v>
       </c>
       <c r="C7" s="0">
         <v>183.00000317394733</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.61412037036</v>
+        <v>738157.61412037036</v>
       </c>
       <c r="C8" s="0">
         <v>207.99999833106995</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.61450231483</v>
+        <v>738157.61450231483</v>
       </c>
       <c r="C9" s="0">
         <v>241.00000038743019</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.61484953703</v>
+        <v>738157.61484953703</v>
       </c>
       <c r="C10" s="0">
         <v>270.99999859929085</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.61519675923</v>
+        <v>738157.61519675923</v>
       </c>
       <c r="C11" s="0">
         <v>300.9999968111515</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.61554398143</v>
+        <v>738157.61554398143</v>
       </c>
       <c r="C12" s="0">
         <v>330.99999502301216</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.61590277776</v>
+        <v>738157.61590277776</v>
       </c>
       <c r="C13" s="0">
         <v>361.99999786913395</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.61624999996</v>
+        <v>738157.61624999996</v>
       </c>
       <c r="C14" s="0">
         <v>391.99999608099461</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.61657407403</v>
+        <v>738157.61657407403</v>
       </c>
       <c r="C15" s="0">
         <v>419.99999508261681</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.61726851854</v>
+        <v>738157.61726851854</v>
       </c>
       <c r="C16" s="0">
         <v>480.00000156462193</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.61761574075</v>
+        <v>738157.61761574075</v>
       </c>
       <c r="C17" s="0">
         <v>509.99999977648258</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.61798611109</v>
+        <v>738157.61798611109</v>
       </c>
       <c r="C18" s="0">
         <v>541.9999971985817</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.61831018515</v>
+        <v>738157.61831018515</v>
       </c>
       <c r="C19" s="0">
         <v>569.9999962002039</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.61863425921</v>
+        <v>738157.61863425921</v>
       </c>
       <c r="C20" s="0">
         <v>597.9999952018261</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.61906249996</v>
+        <v>738157.61906249996</v>
       </c>
       <c r="C21" s="0">
         <v>634.99999567866325</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.61928240745</v>
+        <v>738157.61928240745</v>
       </c>
       <c r="C22" s="0">
         <v>654.0000032633543</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.61962962965</v>
+        <v>738157.61962962965</v>
       </c>
       <c r="C23" s="0">
         <v>684.00000147521496</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.61993055558</v>
+        <v>738157.61993055558</v>
       </c>
       <c r="C24" s="0">
         <v>710.0000012665987</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.6203472222</v>
+        <v>738157.6203472222</v>
       </c>
       <c r="C25" s="0">
         <v>745.99999710917473</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.62068287039</v>
+        <v>738157.62068287039</v>
       </c>
       <c r="C26" s="0">
         <v>775.00000074505806</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.62136574078</v>
+        <v>738157.62136574078</v>
       </c>
       <c r="C27" s="0">
         <v>834.00000259280205</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.62175925926</v>
+        <v>738157.62175925926</v>
       </c>
       <c r="C28" s="0">
         <v>867.99999922513962</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.62204861105</v>
+        <v>738157.62204861105</v>
       </c>
       <c r="C29" s="0">
         <v>892.99999438226223</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.62241898151</v>
+        <v>738157.62241898151</v>
       </c>
       <c r="C30" s="0">
         <v>925.00000186264515</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.62274305557</v>
+        <v>738157.62274305557</v>
       </c>
       <c r="C31" s="0">
         <v>953.00000086426735</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.6231018519</v>
+        <v>738157.6231018519</v>
       </c>
       <c r="C32" s="0">
         <v>984.00000371038914</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.62343749998</v>
+        <v>738157.62343749998</v>
       </c>
       <c r="C33" s="0">
         <v>1012.9999972879887</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.62378472218</v>
+        <v>738157.62378472218</v>
       </c>
       <c r="C34" s="0">
         <v>1042.9999954998493</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.62414351851</v>
+        <v>738157.62414351851</v>
       </c>
       <c r="C35" s="0">
         <v>1073.9999983459711</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.62450231484</v>
+        <v>738157.62450231484</v>
       </c>
       <c r="C36" s="0">
         <v>1105.0000011920929</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.62483796291</v>
+        <v>738157.62483796291</v>
       </c>
       <c r="C37" s="0">
         <v>1133.9999947696924</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.6251736111</v>
+        <v>738157.6251736111</v>
       </c>
       <c r="C38" s="0">
         <v>1162.9999984055758</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.62554398144</v>
+        <v>738157.62554398144</v>
       </c>
       <c r="C39" s="0">
         <v>1194.9999958276749</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.62623842596</v>
+        <v>738157.62623842596</v>
       </c>
       <c r="C40" s="0">
         <v>1255.00000230968</v>
